--- a/biology/Histoire de la zoologie et de la botanique/Alexander_Buchan_(météorologue)/Alexander_Buchan_(météorologue).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alexander_Buchan_(météorologue)/Alexander_Buchan_(météorologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexander_Buchan_(m%C3%A9t%C3%A9orologue)</t>
+          <t>Alexander_Buchan_(météorologue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexander Buchan (né le 11 avril 1829 à Kinnesswood (en), Portmoak (en) – mort le 13 mai 1907 à Édimbourg) est un météorologue, océanographe et botaniste écossais. On lui crédite l'utilisation de la carte météorologique comme base pour les prévisions météorologiques modernes[1]. Il est également l'auteur de la théorie des Buchan Spells (ar).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexander Buchan (né le 11 avril 1829 à Kinnesswood (en), Portmoak (en) – mort le 13 mai 1907 à Édimbourg) est un météorologue, océanographe et botaniste écossais. On lui crédite l'utilisation de la carte météorologique comme base pour les prévisions météorologiques modernes. Il est également l'auteur de la théorie des Buchan Spells (ar).
 Buchan a été secrétaire de la Scottish Meteorological Society (en) pendant 47 ans. De 1860 jusqu'à sa mort, il a été l'éditeur du Journal of the Scottish Meteorological Society. Il a également été membre du conseil du Met Office ainsi que curateur de la bibliothèque de la Royal Society of Edinburgh. Il a été une personnalité clé pour la création de l'observatoire de Ben Nevis et a préparé des bulletins océanographiques et météorologiques pour l'expédition du Challenger.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexander_Buchan_(m%C3%A9t%C3%A9orologue)</t>
+          <t>Alexander_Buchan_(météorologue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Buchan naît à Kinnesswood, sur la rive nord du Loch Leven. Il est le fils d'Alexander Buchan et de Margaret Day Hill.
 Buchan étudie au Free Church College (en) d'Édimbourg, puis à l'université d'Édimbourg.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alexander_Buchan_(m%C3%A9t%C3%A9orologue)</t>
+          <t>Alexander_Buchan_(météorologue)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en)The Atmospheric Circulation
 (en)Handy book of Meteorology (1867)
